--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -589,7 +589,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Alex Sarr</t>
+          <t>Alexandre Sarr</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -691,17 +691,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dereck Lively II</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -470,17 +470,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dyson Daniels</t>
+          <t>Kevin Huerter</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Kyle Filipowski</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
@@ -657,34 +657,34 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Naji Marshall</t>
+          <t>Dyson Daniels</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kyle Filipowski</t>
+          <t>Naz Reid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Dyson Daniels</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,14 +463,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kevin Huerter</t>
+          <t>Luguentz Dort</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,133 +480,133 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Luguentz Dort</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>Kyle Filipowski</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kyle Filipowski</t>
+          <t>Tari Eason</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tari Eason</t>
+          <t>Alexandre Sarr</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ochai Agbaji</t>
+          <t>Naz Reid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Alexandre Sarr</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,92 +616,92 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dyson Daniels</t>
+          <t>Kevin Huerter</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Ochai Agbaji</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -470,17 +470,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Luguentz Dort</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
@@ -504,41 +504,41 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>Ochai Agbaji</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kyle Filipowski</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tari Eason</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -548,31 +548,31 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Alexandre Sarr</t>
+          <t>Tari Eason</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Kyle Filipowski</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -582,31 +582,31 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Alexandre Sarr</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,48 +616,48 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kevin Huerter</t>
+          <t>Luguentz Dort</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,41 +667,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ochai Agbaji</t>
+          <t>Naz Reid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dyson Daniels</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,99 +463,99 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
+          <t>Luguentz Dort</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ochai Agbaji</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tari Eason</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -565,109 +565,109 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kyle Filipowski</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Alexandre Sarr</t>
+          <t>Tari Eason</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Ochai Agbaji</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Dyson Daniels</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Luguentz Dort</t>
+          <t>Alexandre Sarr</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
@@ -691,66 +691,49 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Kristaps Porzingis</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Kristaps Porzingis</t>
+          <t>Ja Morant</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG,SF</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
-        <is>
-          <t>Memphis Grizzlies</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Bradley Beal</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PG,SG,SF</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>Phoenix Suns</t>
         </is>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
+          <t>Dyson Daniels</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,14 +480,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Luguentz Dort</t>
+          <t>Amen Thompson</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -497,65 +497,65 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Luguentz Dort</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>Tari Eason</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -565,14 +565,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -582,65 +582,65 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tari Eason</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ochai Agbaji</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dyson Daniels</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -650,31 +650,31 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Alexandre Sarr</t>
+          <t>Ochai Agbaji</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Alexandre Sarr</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -684,14 +684,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kristaps Porzingis</t>
+          <t>Naz Reid</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -701,39 +701,56 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
+          <t>Kristaps Porzingis</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Ja Morant</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Bradley Beal</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>PG,SG,SF</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Phoenix Suns</t>
         </is>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -453,92 +453,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dyson Daniels</t>
+          <t>Ochai Agbaji</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Amen Thompson</t>
+          <t>Grant Williams</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Charlotte Hornets</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Luguentz Dort</t>
+          <t>Naz Reid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>Tari Eason</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -548,14 +548,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tari Eason</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -565,133 +565,133 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Dyson Daniels</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>Amen Thompson</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ochai Agbaji</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Alexandre Sarr</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Alexandre Sarr</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -453,109 +453,109 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>Dyson Daniels</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ochai Agbaji</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Grant Williams</t>
+          <t>Amen Thompson</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Charlotte Hornets</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Tari Eason</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tari Eason</t>
+          <t>Alexandre Sarr</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>Toumani Camara</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -565,116 +565,116 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dyson Daniels</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Grant Williams</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Charlotte Hornets</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Amen Thompson</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Naz Reid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -684,24 +684,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Alexandre Sarr</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>PG,SG,SF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
@@ -725,34 +725,34 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
+          <t>Ja Morant</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PG,SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -691,17 +691,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
+          <t>Ja Morant</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PG,SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
@@ -742,17 +742,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG,SF</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -504,24 +504,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tari Eason</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,133 +531,133 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Alexandre Sarr</t>
+          <t>Tari Eason</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Toumani Camara</t>
+          <t>Alexandre Sarr</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Toumani Camara</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Grant Williams</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>Charlotte Hornets</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Grant Williams</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Charlotte Hornets</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,92 +667,92 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Naz Reid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Kristaps Porzingis</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>PG,SG,SF</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Kristaps Porzingis</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
+          <t>Ja Morant</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PG,SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dyson Daniels</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
@@ -487,41 +487,41 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Amen Thompson</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>Dyson Daniels</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>Jaden McDaniels</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,24 +531,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tari Eason</t>
+          <t>Naz Reid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
@@ -589,24 +589,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Grant Williams</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Charlotte Hornets</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Jonas Valanciunas</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,14 +616,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -633,14 +633,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -650,14 +650,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,41 +667,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Tari Eason</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Dyson Daniels</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
@@ -487,41 +487,41 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>Amen Thompson</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dyson Daniels</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jaden McDaniels</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,24 +531,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Tari Eason</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
@@ -589,24 +589,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Grant Williams</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Charlotte Hornets</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jonas Valanciunas</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,14 +616,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -633,14 +633,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -650,14 +650,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,41 +667,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tari Eason</t>
+          <t>Naz Reid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dyson Daniels</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
@@ -487,34 +487,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Amen Thompson</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>Dyson Daniels</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tari Eason</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -548,31 +548,31 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Alexandre Sarr</t>
+          <t>Toumani Camara</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Toumani Camara</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -582,31 +582,31 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Grant Williams</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Charlotte Hornets</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Jonas Valanciunas</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,14 +616,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -633,75 +633,75 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Luguentz Dort</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Alexandre Sarr</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Tari Eason</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
@@ -742,17 +742,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
+          <t>Deandre Ayton</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,211 +453,211 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG,SG,SF</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
+          <t>Tari Eason</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>Jonas Valanciunas</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dyson Daniels</t>
+          <t>Alexandre Sarr</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Toumani Camara</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
+          <t>Dyson Daniels</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jonas Valanciunas</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Luguentz Dort</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Alexandre Sarr</t>
+          <t>Kristaps Porzingis</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,90 +667,56 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tari Eason</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
+          <t>Deandre Ayton</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PG,SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
-        <is>
-          <t>Phoenix Suns</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Kristaps Porzingis</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>PF,C</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Boston Celtics</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Deandre Ayton</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>Portland Trail Blazers</t>
         </is>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -453,187 +453,187 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG,SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tari Eason</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jonas Valanciunas</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alexandre Sarr</t>
+          <t>Dyson Daniels</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dyson Daniels</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG,SG,SF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Alexandre Sarr</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
@@ -657,51 +657,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kristaps Porzingis</t>
+          <t>Tari Eason</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Jonas Valanciunas</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Kristaps Porzingis</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -572,17 +572,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
+          <t>Tari Eason</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PG,SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
@@ -657,68 +657,68 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tari Eason</t>
+          <t>Kristaps Porzingis</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jonas Valanciunas</t>
+          <t>Payton Pritchard</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kristaps Porzingis</t>
+          <t>Deandre Ayton</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Deandre Ayton</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG,SF</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,84 +25,93 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Alexandre Sarr</t>
+  </si>
+  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
     <t>Payton Pritchard</t>
   </si>
   <si>
     <t>Josh Hart</t>
   </si>
   <si>
-    <t>De'Andre Hunter</t>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
   </si>
   <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Alexandre Sarr</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SG</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG</t>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PG,SG,SF</t>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
     <t>Boston Celtics</t>
   </si>
   <si>
@@ -112,12 +121,12 @@
     <t>Indiana Pacers</t>
   </si>
   <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
@@ -127,10 +136,7 @@
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
+    <t>New Orleans Pelicans</t>
   </si>
 </sst>
 </file>
@@ -488,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -521,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -532,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -543,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -554,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -568,7 +574,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -642,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,7 +662,7 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,7 +673,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,10 +681,21 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -25,118 +25,118 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Marcus Smart</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Alexandre Sarr</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG</t>
   </si>
   <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -549,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,7 +574,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +681,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,10 +692,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,51 +28,54 @@
     <t>Payton Pritchard</t>
   </si>
   <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Marcus Smart</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Marcus Smart</t>
-  </si>
-  <si>
     <t>Josh Hart</t>
   </si>
   <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
     <t>Malik Beasley</t>
   </si>
   <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
     <t>Zion Williamson</t>
   </si>
   <si>
+    <t>Robert Williams III</t>
+  </si>
+  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
@@ -100,34 +103,34 @@
     <t>Boston Celtics</t>
   </si>
   <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
     <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
@@ -494,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -582,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -615,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -626,7 +629,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -637,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -648,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -659,7 +662,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
@@ -670,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,10 +695,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -25,121 +25,121 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
     <t>Payton Pritchard</t>
   </si>
   <si>
     <t>Dyson Daniels</t>
   </si>
   <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Marcus Smart</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
+    <t>Robert Williams III</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
   </si>
   <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Robert Williams III</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
+    <t>Brooklyn Nets</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,7 +533,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,7 +673,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -684,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,10 +695,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -706,10 +706,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
     <t>Jamal Murray</t>
   </si>
   <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
     <t>Tari Eason</t>
   </si>
   <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
     <t>Robert Williams III</t>
   </si>
   <si>
@@ -79,15 +79,18 @@
     <t>Kristaps Porzingis</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
@@ -97,46 +100,43 @@
     <t>C</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
     <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -541,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -552,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -563,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,7 +654,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -706,10 +706,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -25,121 +25,121 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
     <t>Payton Pritchard</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Jabari Smith Jr.</t>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Robert Williams III</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
   </si>
   <si>
     <t>Victor Wembanyama</t>
   </si>
   <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Robert Williams III</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
     <t>Boston Celtics</t>
   </si>
   <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -541,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -552,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -563,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -596,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -607,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -629,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,7 +698,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -706,10 +706,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,121 +25,118 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
     <t>Jamal Murray</t>
   </si>
   <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Deandre Ayton</t>
+    <t>Robert Williams III</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
   </si>
   <si>
     <t>Tari Eason</t>
   </si>
   <si>
-    <t>Robert Williams III</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
+    <t>PG</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
-    <t>New York Knicks</t>
+    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
   </si>
 </sst>
 </file>
@@ -497,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,7 +530,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,7 +541,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,7 +552,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,7 +681,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
@@ -695,21 +692,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,45 +28,48 @@
     <t>Payton Pritchard</t>
   </si>
   <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
     <t>Dyson Daniels</t>
   </si>
   <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
     <t>Domantas Sabonis</t>
   </si>
   <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
     <t>Robert Williams III</t>
   </si>
   <si>
@@ -79,58 +82,58 @@
     <t>PG</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
     <t>Boston Celtics</t>
   </si>
   <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -494,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,7 +555,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,7 +566,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,7 +577,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -615,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -626,7 +629,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -637,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -648,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -659,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,7 +687,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,10 +695,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
     <t>Payton Pritchard</t>
   </si>
   <si>
     <t>Malik Beasley</t>
   </si>
   <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
     <t>Robert Williams III</t>
   </si>
   <si>
@@ -79,61 +79,61 @@
     <t>Tari Eason</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
     <t>SG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
     <t>Boston Celtics</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -530,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -541,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -552,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -563,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -662,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,7 +676,7 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,7 +684,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
@@ -706,7 +706,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,69 +28,69 @@
     <t>Dyson Daniels</t>
   </si>
   <si>
-    <t>Grayson Allen</t>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
   </si>
   <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Deandre Ayton</t>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Robert Williams III</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
   </si>
   <si>
     <t>Jamal Murray</t>
   </si>
   <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Robert Williams III</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -100,46 +100,52 @@
     <t>PF,C</t>
   </si>
   <si>
+    <t>PF</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
     <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
   </si>
 </sst>
 </file>
@@ -522,7 +528,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,10 +536,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -563,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,7 +583,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,7 +616,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,7 +649,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -673,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,10 +701,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -706,10 +712,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -25,27 +25,36 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
     <t>Dyson Daniels</t>
   </si>
   <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
     <t>Deandre Ayton</t>
   </si>
   <si>
     <t>Myles Turner</t>
   </si>
   <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
     <t>Victor Wembanyama</t>
   </si>
   <si>
@@ -55,18 +64,9 @@
     <t>Michael Porter Jr.</t>
   </si>
   <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
     <t>P.J. Washington</t>
   </si>
   <si>
@@ -79,39 +79,48 @@
     <t>Jamal Murray</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
     <t>New York Knicks</t>
   </si>
   <si>
@@ -121,9 +130,6 @@
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
@@ -133,13 +139,7 @@
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
     <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
   </si>
   <si>
     <t>Dallas Mavericks</t>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -569,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -591,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -602,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,7 +616,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -690,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -712,10 +712,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -25,12 +25,30 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
     <t>Payton Pritchard</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
@@ -49,69 +67,69 @@
     <t>Dyson Daniels</t>
   </si>
   <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Robert Williams III</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
   </si>
   <si>
     <t>P.J. Washington</t>
   </si>
   <si>
-    <t>Robert Williams III</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
+    <t>SG,SF</t>
   </si>
   <si>
     <t>PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
   </si>
   <si>
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
     <t>Sacramento Kings</t>
   </si>
   <si>
@@ -124,28 +142,10 @@
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
+    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,7 +561,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,7 +594,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,7 +605,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,7 +627,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,7 +693,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,10 +701,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -712,10 +712,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -25,24 +25,36 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
     <t>Michael Porter Jr.</t>
   </si>
   <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
     <t>Malik Beasley</t>
   </si>
   <si>
@@ -55,21 +67,9 @@
     <t>Domantas Sabonis</t>
   </si>
   <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
     <t>Josh Hart</t>
   </si>
   <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
     <t>Robert Williams III</t>
   </si>
   <si>
@@ -82,15 +82,15 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
@@ -106,24 +106,30 @@
     <t>PF</t>
   </si>
   <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
@@ -131,12 +137,6 @@
   </si>
   <si>
     <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>New York Knicks</t>
@@ -547,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -624,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -679,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -25,127 +25,127 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
     <t>Dyson Daniels</t>
   </si>
   <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
     <t>Jamal Murray</t>
   </si>
   <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Robert Williams III</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
   </si>
   <si>
     <t>Deandre Ayton</t>
   </si>
   <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Robert Williams III</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PF</t>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
     <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
   </si>
 </sst>
 </file>
@@ -547,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -624,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,7 +635,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -646,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -657,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -690,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,10 +701,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -712,10 +712,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,27 +25,42 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Andre Drummond</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
     <t>Tari Eason</t>
   </si>
   <si>
@@ -55,97 +70,76 @@
     <t>Dyson Daniels</t>
   </si>
   <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Robert Williams III</t>
-  </si>
-  <si>
     <t>Cam Thomas</t>
   </si>
   <si>
     <t>Deandre Ayton</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
+    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
   </si>
 </sst>
 </file>
@@ -503,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -536,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,7 +610,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,7 +643,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -668,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,21 +695,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -58,18 +58,18 @@
     <t>Josh Hart</t>
   </si>
   <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
     <t>Cam Thomas</t>
   </si>
   <si>
@@ -127,13 +127,13 @@
     <t>New York Knicks</t>
   </si>
   <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -640,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -662,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,121 +25,115 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Andre Drummond</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
     <t>Jamal Murray</t>
   </si>
   <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Andre Drummond</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
   </si>
   <si>
     <t>Josh Hart</t>
   </si>
   <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PG,SG,SF</t>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
   </si>
   <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Sacramento Kings</t>
   </si>
   <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
   </si>
 </sst>
 </file>
@@ -497,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +513,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,7 +527,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,7 +538,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,7 +549,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -585,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -629,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,21 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -40,37 +40,40 @@
     <t>Bradley Beal</t>
   </si>
   <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
     <t>Michael Porter Jr.</t>
   </si>
   <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Andre Drummond</t>
-  </si>
-  <si>
     <t>Myles Turner</t>
   </si>
   <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
     <t>Jamal Murray</t>
   </si>
   <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
     <t>Cam Thomas</t>
   </si>
   <si>
-    <t>Josh Hart</t>
+    <t>Tari Eason</t>
   </si>
   <si>
     <t>PG,SG</t>
@@ -85,18 +88,18 @@
     <t>PG</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
@@ -112,28 +115,31 @@
     <t>Phoenix Suns</t>
   </si>
   <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
     <t>Brooklyn Nets</t>
   </si>
   <si>
-    <t>New York Knicks</t>
+    <t>Houston Rockets</t>
   </si>
 </sst>
 </file>
@@ -491,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,7 +673,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -678,10 +684,21 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
-        <v>39</v>
+      <c r="C18" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Obi Toppin</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
+    <t>Victor Wembanyama</t>
   </si>
   <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
     <t>Cam Thomas</t>
   </si>
   <si>
@@ -79,61 +79,61 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
     <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -522,7 +522,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -555,7 +555,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,7 +632,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -662,7 +662,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -673,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,7 +684,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -695,7 +695,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -28,48 +28,48 @@
     <t>Jamal Murray</t>
   </si>
   <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
     <t>Michael Porter Jr.</t>
   </si>
   <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
     <t>Obi Toppin</t>
   </si>
   <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
     <t>Domantas Sabonis</t>
   </si>
   <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
     <t>Cam Thomas</t>
   </si>
   <si>
@@ -79,61 +79,61 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
     <t>Sacramento Kings</t>
   </si>
   <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
     <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -530,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -607,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -629,7 +629,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,7 +684,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -695,7 +695,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Takım</t>
   </si>
   <si>
-    <t>Jamal Murray</t>
+    <t>Bradley Beal</t>
   </si>
   <si>
     <t>Donovan Mitchell</t>
@@ -49,25 +49,25 @@
     <t>Josh Hart</t>
   </si>
   <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
     <t>Deandre Ayton</t>
   </si>
   <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
     <t>Victor Wembanyama</t>
   </si>
   <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
-    <t>Obi Toppin</t>
-  </si>
-  <si>
     <t>Domantas Sabonis</t>
   </si>
   <si>
-    <t>Bradley Beal</t>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>Trayce Jackson-Davis</t>
   </si>
   <si>
     <t>Cam Thomas</t>
@@ -76,6 +76,9 @@
     <t>Tari Eason</t>
   </si>
   <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -85,9 +88,6 @@
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
@@ -100,46 +100,43 @@
     <t>PF,C</t>
   </si>
   <si>
-    <t>PF</t>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
     <t>Sacramento Kings</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
+    <t>Golden State Warriors</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
   </si>
 </sst>
 </file>
@@ -522,7 +519,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,7 +585,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -643,7 +640,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,7 +670,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -684,7 +681,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -698,7 +695,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,118 +25,124 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Alexandre Sarr</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
+    <t>Shaedon Sharpe</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
-    <t>Trayce Jackson-Davis</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +522,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,7 +536,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,7 +547,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,7 +558,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,7 +668,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,7 +679,7 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,7 +701,18 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -31,118 +31,112 @@
     <t>Donovan Mitchell</t>
   </si>
   <si>
+    <t>Luguentz Dort</t>
+  </si>
+  <si>
+    <t>Alexandre Sarr</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
     <t>Josh Hart</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Alexandre Sarr</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
   </si>
   <si>
     <t>Dyson Daniels</t>
   </si>
   <si>
-    <t>Victor Wembanyama</t>
+    <t>Tari Eason</t>
   </si>
   <si>
     <t>Cam Thomas</t>
   </si>
   <si>
-    <t>Shaedon Sharpe</t>
-  </si>
-  <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
     <t>Boston Celtics</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
     <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
   </si>
 </sst>
 </file>
@@ -500,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,7 +596,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -643,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +651,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,7 +662,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,10 +681,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,21 +692,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,48 +25,48 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Duncan Robinson</t>
+  </si>
+  <si>
+    <t>Ziaire Williams</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
     <t>Payton Pritchard</t>
   </si>
   <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Luguentz Dort</t>
-  </si>
-  <si>
-    <t>Alexandre Sarr</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
     <t>Alperen Sengün</t>
   </si>
   <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
     <t>Michael Porter Jr.</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
     <t>Dyson Daniels</t>
   </si>
   <si>
@@ -76,25 +76,49 @@
     <t>Cam Thomas</t>
   </si>
   <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
   </si>
   <si>
     <t>Boston Celtics</t>
@@ -103,40 +127,13 @@
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
   </si>
 </sst>
 </file>
@@ -527,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -538,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -560,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -571,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,7 +582,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,7 +615,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -648,7 +645,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -659,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -670,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,10 +689,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -25,115 +25,115 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
+    <t>Duncan Robinson</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Ziaire Williams</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
     <t>Josh Hart</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Duncan Robinson</t>
-  </si>
-  <si>
-    <t>Ziaire Williams</t>
-  </si>
-  <si>
     <t>Domantas Sabonis</t>
   </si>
   <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
     <t>Tari Eason</t>
   </si>
   <si>
     <t>Cam Thomas</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
+    <t>Boston Celtics</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
     <t>Sacramento Kings</t>
   </si>
   <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
     <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -571,7 +571,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,7 +623,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -634,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +648,7 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,7 +25,13 @@
     <t>Takım</t>
   </si>
   <si>
-    <t>Payton Pritchard</t>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
   </si>
   <si>
     <t>Bradley Beal</t>
@@ -34,106 +40,109 @@
     <t>Duncan Robinson</t>
   </si>
   <si>
-    <t>Dyson Daniels</t>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
   </si>
   <si>
     <t>Michael Porter Jr.</t>
   </si>
   <si>
-    <t>De'Andre Hunter</t>
+    <t>Ziaire Williams</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Aaron Wiggins</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
   </si>
   <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Ziaire Williams</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
     <t>Domantas Sabonis</t>
   </si>
   <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
     <t>Tari Eason</t>
   </si>
   <si>
     <t>Cam Thomas</t>
   </si>
   <si>
+    <t>Santi Aldama</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
   </si>
   <si>
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
     <t>Sacramento Kings</t>
   </si>
   <si>
-    <t>Cleveland Cavaliers</t>
+    <t>Memphis Grizzlies</t>
   </si>
 </sst>
 </file>
@@ -491,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +522,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -579,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,7 +602,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +624,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +657,7 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,7 +701,18 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -43,6 +43,9 @@
     <t>De'Andre Hunter</t>
   </si>
   <si>
+    <t>Kentavious Caldwell-Pope</t>
+  </si>
+  <si>
     <t>Deandre Ayton</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t>Victor Wembanyama</t>
   </si>
   <si>
-    <t>Aaron Wiggins</t>
-  </si>
-  <si>
     <t>Josh Hart</t>
   </si>
   <si>
@@ -115,6 +115,9 @@
     <t>Miami Heat</t>
   </si>
   <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
@@ -128,9 +131,6 @@
   </si>
   <si>
     <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
   </si>
   <si>
     <t>New York Knicks</t>
@@ -588,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -621,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -632,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -643,7 +643,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -690,7 +690,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,7 +701,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3">

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,124 +25,124 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Santi Aldama</t>
+  </si>
+  <si>
+    <t>Chris Boucher</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Jonas Valanciunas</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
+    <t>Kristaps Porzingis</t>
   </si>
   <si>
     <t>Dyson Daniels</t>
   </si>
   <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Duncan Robinson</t>
-  </si>
-  <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
-    <t>Kentavious Caldwell-Pope</t>
+    <t>Cam Thomas</t>
   </si>
   <si>
     <t>Deandre Ayton</t>
   </si>
   <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Ziaire Williams</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Santi Aldama</t>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>Detroit Pistons</t>
+    <t>Boston Celtics</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
+    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,7 +558,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,7 +580,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -632,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -643,7 +643,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -654,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -665,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -679,7 +679,7 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,20 +698,9 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
         <v>42</v>
       </c>
     </row>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,121 +28,115 @@
     <t>Donte DiVincenzo</t>
   </si>
   <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Chris Boucher</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Santi Aldama</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
     <t>Malik Beasley</t>
   </si>
   <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Santi Aldama</t>
-  </si>
-  <si>
-    <t>Chris Boucher</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Jonas Valanciunas</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
     <t>Cam Thomas</t>
   </si>
   <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
     <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
   </si>
 </sst>
 </file>
@@ -500,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +651,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,7 +673,7 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,21 +681,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -34,6 +34,9 @@
     <t>Dyson Daniels</t>
   </si>
   <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
@@ -46,12 +49,12 @@
     <t>De'Andre Hunter</t>
   </si>
   <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
     <t>Alperen Sengün</t>
   </si>
   <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
     <t>Santi Aldama</t>
   </si>
   <si>
@@ -64,9 +67,6 @@
     <t>Domantas Sabonis</t>
   </si>
   <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
     <t>Malik Beasley</t>
   </si>
   <si>
@@ -79,6 +79,9 @@
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
@@ -103,6 +103,9 @@
     <t>Atlanta Hawks</t>
   </si>
   <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
@@ -112,12 +115,12 @@
     <t>Denver Nuggets</t>
   </si>
   <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
     <t>Memphis Grizzlies</t>
   </si>
   <si>
@@ -128,9 +131,6 @@
   </si>
   <si>
     <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
@@ -571,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -582,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -626,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -637,7 +637,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -648,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -659,7 +659,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
@@ -670,7 +670,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -681,7 +681,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,52 +25,70 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Tim Hardaway Jr.</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Santi Aldama</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Chris Boucher</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
     <t>Donte DiVincenzo</t>
   </si>
   <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Chris Boucher</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
+    <t>Cam Thomas</t>
   </si>
   <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Santi Aldama</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
   </si>
   <si>
     <t>PG,SG,SF</t>
@@ -79,61 +97,46 @@
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
   </si>
   <si>
     <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -494,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -549,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -582,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -593,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,7 +621,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,7 +687,18 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,10 +25,34 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Lonzo Ball</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Chris Boucher</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Santi Aldama</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
+    <t>Domantas Sabonis</t>
   </si>
   <si>
     <t>Tim Hardaway Jr.</t>
@@ -37,21 +61,6 @@
     <t>Alperen Sengün</t>
   </si>
   <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Santi Aldama</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Chris Boucher</t>
-  </si>
-  <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
@@ -61,66 +70,72 @@
     <t>Dyson Daniels</t>
   </si>
   <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
   </si>
   <si>
     <t>Donte DiVincenzo</t>
   </si>
   <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>Detroit Pistons</t>
+    <t>Sacramento Kings</t>
   </si>
   <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
@@ -130,16 +145,10 @@
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
+    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
   </si>
 </sst>
 </file>
@@ -497,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +528,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,10 +539,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,10 +550,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,10 +561,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +572,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +594,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +605,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,7 +638,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -643,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +671,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +693,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,10 +704,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,124 +25,118 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Tim Hardaway Jr.</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Lonzo Ball</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Santi Aldama</t>
+  </si>
+  <si>
     <t>Josh Hart</t>
   </si>
   <si>
-    <t>Lonzo Ball</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Chris Boucher</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Santi Aldama</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Tim Hardaway Jr.</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
     <t>Cam Thomas</t>
   </si>
   <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
     <t>Donte DiVincenzo</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
   </si>
   <si>
     <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -506,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +522,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -539,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -550,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -572,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,7 +591,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -630,7 +624,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -649,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -663,7 +657,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,21 +698,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -25,45 +25,45 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Stephon Castle</t>
+  </si>
+  <si>
+    <t>Lonzo Ball</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Tim Hardaway Jr.</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Lonzo Ball</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
     <t>Santi Aldama</t>
   </si>
   <si>
@@ -79,58 +79,58 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
     <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
   </si>
   <si>
     <t>Memphis Grizzlies</t>
@@ -544,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -588,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -599,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -621,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -632,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -643,7 +643,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -654,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -665,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -687,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -698,7 +698,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,118 +25,121 @@
     <t>Takım</t>
   </si>
   <si>
-    <t>Stephon Castle</t>
-  </si>
-  <si>
     <t>Lonzo Ball</t>
   </si>
   <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Santi Aldama</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Brice Sensabaugh</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
     <t>Kelly Oubre Jr.</t>
   </si>
   <si>
     <t>Michael Porter Jr.</t>
   </si>
   <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Santi Aldama</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
     <t>Cam Thomas</t>
   </si>
   <si>
     <t>Donte DiVincenzo</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
   </si>
   <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -569,7 +572,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,7 +583,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -599,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,7 +693,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,7 +704,7 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,49 +25,49 @@
     <t>Takım</t>
   </si>
   <si>
-    <t>Lonzo Ball</t>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Kel'el Ware</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Santi Aldama</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
   </si>
   <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
+    <t>De'Andre Hunter</t>
   </si>
   <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Santi Aldama</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Brice Sensabaugh</t>
-  </si>
-  <si>
     <t>Domantas Sabonis</t>
   </si>
   <si>
     <t>Victor Wembanyama</t>
   </si>
   <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
+    <t>Jaden McDaniels</t>
   </si>
   <si>
     <t>Cam Thomas</t>
@@ -76,76 +76,70 @@
     <t>Donte DiVincenzo</t>
   </si>
   <si>
-    <t>PG</t>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
     <t>Sacramento Kings</t>
   </si>
   <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
+    <t>Minnesota Timberwolves</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
   </si>
 </sst>
 </file>
@@ -528,7 +522,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -539,7 +533,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -550,7 +544,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,7 +555,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,7 +577,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -602,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -613,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -635,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,7 +698,7 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -25,6 +25,39 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Santi Aldama</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
     <t>Josh Hart</t>
   </si>
   <si>
@@ -37,64 +70,61 @@
     <t>Kel'el Ware</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Santi Aldama</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
     <t>Cam Thomas</t>
   </si>
   <si>
     <t>Donte DiVincenzo</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
   </si>
   <si>
     <t>New York Knicks</t>
@@ -107,36 +137,6 @@
   </si>
   <si>
     <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -563,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,7 +577,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,7 +588,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,7 +610,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -651,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -673,7 +673,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -695,10 +695,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,48 +28,48 @@
     <t>Donovan Mitchell</t>
   </si>
   <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Ty Jerome</t>
+  </si>
+  <si>
+    <t>Kel'el Ware</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
     <t>Malik Beasley</t>
   </si>
   <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Santi Aldama</t>
-  </si>
-  <si>
     <t>Jaden McDaniels</t>
   </si>
   <si>
     <t>Alperen Sengün</t>
   </si>
   <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
     <t>Josh Hart</t>
   </si>
   <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Kel'el Ware</t>
-  </si>
-  <si>
     <t>Cam Thomas</t>
   </si>
   <si>
@@ -82,61 +82,58 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
     <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -541,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,7 +563,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -585,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -596,7 +593,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -607,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -632,7 +629,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,7 +684,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,10 +692,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -31,67 +31,73 @@
     <t>Kelly Oubre Jr.</t>
   </si>
   <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Kel'el Ware</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
     <t>Ty Jerome</t>
   </si>
   <si>
-    <t>Kel'el Ware</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
+    <t>Jordan Hawkins</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
   </si>
   <si>
     <t>Josh Hart</t>
   </si>
   <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Donte DiVincenzo</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
+    <t>SG</t>
   </si>
   <si>
     <t>SG,SF,PF</t>
@@ -103,10 +109,28 @@
     <t>Philadelphia 76ers</t>
   </si>
   <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
     <t>Miami Heat</t>
   </si>
   <si>
-    <t>Boston Celtics</t>
+    <t>Houston Rockets</t>
   </si>
   <si>
     <t>San Antonio Spurs</t>
@@ -115,28 +139,13 @@
     <t>Sacramento Kings</t>
   </si>
   <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
   </si>
 </sst>
 </file>
@@ -494,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +525,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,10 +536,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,10 +701,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -64,21 +64,21 @@
     <t>Ty Jerome</t>
   </si>
   <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
-    <t>Jordan Hawkins</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Donte DiVincenzo</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -97,9 +97,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
@@ -139,13 +136,10 @@
     <t>Sacramento Kings</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
+    <t>New York Knicks</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
   </si>
 </sst>
 </file>
@@ -528,7 +522,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -539,7 +533,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -550,7 +544,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,7 +555,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -572,7 +566,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,7 +577,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,7 +588,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,7 +599,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,7 +610,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,7 +621,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,7 +632,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,7 +654,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,7 +687,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,7 +698,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -712,10 +706,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -28,45 +28,45 @@
     <t>Donovan Mitchell</t>
   </si>
   <si>
+    <t>Ty Jerome</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Kel'el Ware</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
     <t>Kelly Oubre Jr.</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Kel'el Ware</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Ty Jerome</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
     <t>Guerschon Yabusele</t>
   </si>
   <si>
@@ -94,49 +94,49 @@
     <t>PF,C</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -530,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,7 +544,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,7 +555,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,7 +566,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,7 +577,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,7 +662,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -676,7 +676,7 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -698,7 +698,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,7 +709,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,115 +28,112 @@
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Ty Jerome</t>
-  </si>
-  <si>
     <t>Malik Beasley</t>
   </si>
   <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Kel'el Ware</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
     <t>Dyson Daniels</t>
   </si>
   <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Kel'el Ware</t>
+    <t>De'Andre Hunter</t>
   </si>
   <si>
     <t>Alperen Sengün</t>
   </si>
   <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Guerschon Yabusele</t>
-  </si>
-  <si>
     <t>Cam Thomas</t>
   </si>
   <si>
     <t>Donte DiVincenzo</t>
   </si>
   <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
     <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -497,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -541,7 +538,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -552,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -563,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -574,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -585,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,7 +607,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -684,10 +681,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,21 +692,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,48 +28,48 @@
     <t>Donovan Mitchell</t>
   </si>
   <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Jonas Valanciunas</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Kel'el Ware</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
     <t>Malik Beasley</t>
   </si>
   <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Guerschon Yabusele</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Kel'el Ware</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
     <t>Cam Thomas</t>
   </si>
   <si>
@@ -79,61 +79,64 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
     <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -538,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -552,7 +555,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,7 +577,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -604,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -615,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -626,7 +629,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -637,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -648,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -659,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,10 +695,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,55 +25,70 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Derrick Jones Jr.</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Jalen Smith</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
     <t>Dyson Daniels</t>
   </si>
   <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Kel'el Ware</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
     <t>Alperen Sengün</t>
   </si>
   <si>
-    <t>Jonas Valanciunas</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Kel'el Ware</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Donte DiVincenzo</t>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>PG,SG</t>
@@ -82,19 +97,34 @@
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
@@ -103,43 +133,19 @@
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves</t>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
   </si>
 </sst>
 </file>
@@ -497,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +525,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,7 +539,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,7 +550,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,7 +561,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,7 +583,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,7 +594,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,10 +701,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,127 +25,118 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Kel'el Ware</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
     <t>Kelly Oubre Jr.</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Derrick Jones Jr.</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Jalen Smith</t>
-  </si>
-  <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Kel'el Ware</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
     <t>Cam Thomas</t>
   </si>
   <si>
     <t>Donte DiVincenzo</t>
   </si>
   <si>
-    <t>Alperen Sengün</t>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PG,SG</t>
   </si>
   <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
     <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
   </si>
 </sst>
 </file>
@@ -503,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -539,7 +530,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -550,7 +541,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,7 +552,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -572,7 +563,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,7 +574,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,7 +596,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,10 +681,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,21 +692,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,118 +25,130 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Patrick Williams</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Kelly Olynyk</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Kel'el Ware</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
     <t>Dyson Daniels</t>
   </si>
   <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Kel'el Ware</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Nicolas Claxton</t>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
   </si>
   <si>
     <t>Alperen Sengün</t>
   </si>
   <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Donte DiVincenzo</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
   </si>
   <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
+    <t>Golden State Warriors</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
   </si>
 </sst>
 </file>
@@ -494,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +528,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,10 +539,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,7 +553,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,10 +561,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,10 +572,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,10 +594,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +605,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +638,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +671,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +693,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,10 +704,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
-        <v>30</v>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,130 +25,121 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Bilal Coulibaly</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Patrick Williams</t>
-  </si>
-  <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
-    <t>Kelly Olynyk</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
     <t>Kel'el Ware</t>
   </si>
   <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
     <t>Cam Thomas</t>
   </si>
   <si>
     <t>Donte DiVincenzo</t>
   </si>
   <si>
-    <t>Alperen Sengün</t>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
     <t>Miami Heat</t>
   </si>
   <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
     <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
   </si>
 </sst>
 </file>
@@ -506,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -539,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -553,7 +544,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -572,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -641,7 +632,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -685,7 +676,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,21 +695,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,118 +25,118 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Carlton Carrington</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Bilal Coulibaly</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
     <t>Dyson Daniels</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
+    <t>Kel'el Ware</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
   </si>
   <si>
     <t>Josh Hart</t>
   </si>
   <si>
-    <t>Bilal Coulibaly</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
   </si>
   <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Kel'el Ware</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Donte DiVincenzo</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
   </si>
   <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>SG,SF</t>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>PF,C</t>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Detroit Pistons</t>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
   </si>
   <si>
     <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -497,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,7 +544,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -574,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -585,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -629,7 +629,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -640,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -651,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -673,7 +673,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -684,7 +684,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -695,10 +695,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
-        <v>32</v>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,118 +25,121 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Ochai Agbaji</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
     <t>Carlton Carrington</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
     <t>Bilal Coulibaly</t>
   </si>
   <si>
-    <t>Kelly Oubre Jr.</t>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Kel'el Ware</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
   </si>
   <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Kel'el Ware</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Donte DiVincenzo</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
     <t>Washington Wizards</t>
   </si>
   <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -530,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -541,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,7 +635,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,7 +701,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -706,10 +709,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -31,118 +31,115 @@
     <t>Malik Beasley</t>
   </si>
   <si>
-    <t>Ochai Agbaji</t>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Kel'el Ware</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Naji Marshall</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Bilal Coulibaly</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
   </si>
   <si>
     <t>Alperen Sengün</t>
   </si>
   <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Carlton Carrington</t>
-  </si>
-  <si>
-    <t>Bilal Coulibaly</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Kel'el Ware</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SF,PF</t>
+    <t>PG,SG</t>
   </si>
   <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
-    <t>Toronto Raptors</t>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
   </si>
 </sst>
 </file>
@@ -500,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,7 +544,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,7 +555,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,7 +588,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,7 +599,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,20 +695,9 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
         <v>41</v>
       </c>
     </row>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -25,6 +25,9 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
     <t>Kelly Oubre Jr.</t>
   </si>
   <si>
@@ -34,10 +37,16 @@
     <t>Josh Hart</t>
   </si>
   <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
-    <t>Andrew Wiggins</t>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Bilal Coulibaly</t>
   </si>
   <si>
     <t>Victor Wembanyama</t>
@@ -52,22 +61,13 @@
     <t>Kristaps Porzingis</t>
   </si>
   <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
     <t>Michael Porter Jr.</t>
   </si>
   <si>
     <t>Naji Marshall</t>
   </si>
   <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Bilal Coulibaly</t>
+    <t>Julius Randle</t>
   </si>
   <si>
     <t>Cam Thomas</t>
@@ -76,12 +76,18 @@
     <t>Alperen Sengün</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
@@ -91,10 +97,7 @@
     <t>PF,C</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
+    <t>Cleveland Cavaliers</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
@@ -106,34 +109,31 @@
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Cleveland Cavaliers</t>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
   </si>
   <si>
     <t>Miami Heat</t>
   </si>
   <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
     <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -530,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -563,7 +563,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -574,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -621,7 +621,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,7 +684,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -695,7 +695,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -55,27 +55,27 @@
     <t>Domantas Sabonis</t>
   </si>
   <si>
-    <t>Kel'el Ware</t>
-  </si>
-  <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
+    <t>Naji Marshall</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Kessler Edwards</t>
+  </si>
+  <si>
+    <t>Julius Randle</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
     <t>Michael Porter Jr.</t>
   </si>
   <si>
-    <t>Naji Marshall</t>
-  </si>
-  <si>
-    <t>Julius Randle</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -124,22 +124,19 @@
     <t>Sacramento Kings</t>
   </si>
   <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
     <t>Boston Celtics</t>
   </si>
   <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
     <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
   </si>
 </sst>
 </file>
@@ -640,7 +637,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -651,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -662,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -687,7 +684,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,10 +692,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,48 +25,45 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Kessler Edwards</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Bilal Coulibaly</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Victor Wembanyama</t>
+  </si>
+  <si>
     <t>Kelly Oubre Jr.</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Bilal Coulibaly</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Naji Marshall</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Kessler Edwards</t>
-  </si>
-  <si>
     <t>Julius Randle</t>
   </si>
   <si>
@@ -76,6 +73,12 @@
     <t>Michael Porter Jr.</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -88,49 +91,43 @@
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
     <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -494,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +513,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -593,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -604,7 +601,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -626,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,21 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Alex Len</t>
+  </si>
+  <si>
     <t>Kessler Edwards</t>
   </si>
   <si>
@@ -73,12 +76,12 @@
     <t>Michael Porter Jr.</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>PF,C</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
   </si>
   <si>
     <t>Dallas Mavericks</t>
@@ -491,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,7 +555,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,7 +577,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,7 +588,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,7 +599,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,10 +684,21 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
-        <v>39</v>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,121 +25,124 @@
     <t>Takım</t>
   </si>
   <si>
-    <t>Alex Len</t>
-  </si>
-  <si>
-    <t>Kessler Edwards</t>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Max Strus</t>
+  </si>
+  <si>
+    <t>Bilal Coulibaly</t>
   </si>
   <si>
     <t>Jaden McDaniels</t>
   </si>
   <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Harrison Barnes</t>
+  </si>
+  <si>
+    <t>Gary Trent Jr.</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
     <t>Domantas Sabonis</t>
   </si>
   <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>Julius Randle</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
   </si>
   <si>
     <t>Josh Hart</t>
   </si>
   <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Bilal Coulibaly</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Julius Randle</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
+    <t>PF,C</t>
   </si>
   <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
   </si>
   <si>
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
     <t>Sacramento Kings</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -563,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -574,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,7 +591,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,7 +602,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,7 +613,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -662,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -673,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,10 +698,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -25,15 +25,33 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Gary Trent Jr.</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Max Strus</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Max Strus</t>
-  </si>
-  <si>
     <t>Bilal Coulibaly</t>
   </si>
   <si>
@@ -43,31 +61,13 @@
     <t>De'Andre Hunter</t>
   </si>
   <si>
-    <t>Harrison Barnes</t>
-  </si>
-  <si>
-    <t>Gary Trent Jr.</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
     <t>Dyson Daniels</t>
   </si>
   <si>
-    <t>Toumani Camara</t>
+    <t>Devin Vassell</t>
   </si>
   <si>
     <t>Julius Randle</t>
@@ -79,25 +79,43 @@
     <t>Josh Hart</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
@@ -112,31 +130,13 @@
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
     <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -544,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -621,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,7 +635,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -665,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -676,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -687,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -709,7 +709,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -25,6 +25,36 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
     <t>Toumani Camara</t>
   </si>
   <si>
@@ -34,40 +64,10 @@
     <t>Michael Porter Jr.</t>
   </si>
   <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Gary Trent Jr.</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Max Strus</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Bilal Coulibaly</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
+    <t>Aaron Wiggins</t>
+  </si>
+  <si>
+    <t>Moussa Diabate</t>
   </si>
   <si>
     <t>Julius Randle</t>
@@ -76,28 +76,55 @@
     <t>Cam Thomas</t>
   </si>
   <si>
-    <t>Josh Hart</t>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
   </si>
   <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>PF,C</t>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
@@ -109,40 +136,13 @@
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,7 +580,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -632,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -643,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,7 +701,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,10 +709,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -25,121 +25,121 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Aaron Wiggins</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Aaron Wiggins</t>
-  </si>
-  <si>
-    <t>Moussa Diabate</t>
-  </si>
-  <si>
     <t>Julius Randle</t>
   </si>
   <si>
     <t>Cam Thomas</t>
   </si>
   <si>
-    <t>Tari Eason</t>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -544,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,7 +558,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,7 +580,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,7 +591,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -698,7 +698,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
@@ -709,10 +709,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,7 +25,19 @@
     <t>Takım</t>
   </si>
   <si>
-    <t>Grayson Allen</t>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
+    <t>Aaron Wiggins</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
   </si>
   <si>
     <t>Michael Porter Jr.</t>
@@ -34,55 +46,49 @@
     <t>Jaden McDaniels</t>
   </si>
   <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
     <t>Toumani Camara</t>
   </si>
   <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
     <t>Domantas Sabonis</t>
   </si>
   <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
     <t>Kelly Oubre Jr.</t>
   </si>
   <si>
-    <t>Aaron Wiggins</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
     <t>Devin Vassell</t>
   </si>
   <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
     <t>Julius Randle</t>
   </si>
   <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
     <t>Guerschon Yabusele</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
+    <t>PF,C</t>
   </si>
   <si>
     <t>SG,SF,PF</t>
@@ -91,16 +97,16 @@
     <t>C</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
   </si>
   <si>
     <t>Denver Nuggets</t>
@@ -109,40 +115,28 @@
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
     <t>Sacramento Kings</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
     <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
   </si>
 </sst>
 </file>
@@ -500,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,7 +640,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,10 +681,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,21 +692,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -25,118 +25,118 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Aaron Wiggins</t>
+  </si>
+  <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
     <t>Cam Thomas</t>
   </si>
   <si>
-    <t>Aaron Wiggins</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
+    <t>Julius Randle</t>
   </si>
   <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Julius Randle</t>
-  </si>
-  <si>
-    <t>Guerschon Yabusele</t>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
     <t>Brooklyn Nets</t>
   </si>
   <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
     <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -549,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -563,7 +563,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,7 +574,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -637,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,7 +684,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,7 +695,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -25,57 +25,60 @@
     <t>Takım</t>
   </si>
   <si>
-    <t>Aaron Wiggins</t>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
   </si>
   <si>
     <t>Toumani Camara</t>
   </si>
   <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Julius Randle</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
     <t>Devin Vassell</t>
   </si>
   <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Kelly Olynyk</t>
   </si>
   <si>
     <t>Domantas Sabonis</t>
   </si>
   <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Guerschon Yabusele</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Julius Randle</t>
-  </si>
-  <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
@@ -85,55 +88,52 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
+    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>Boston Celtics</t>
@@ -538,7 +538,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -560,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -571,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,7 +618,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -637,7 +637,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -648,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -659,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +681,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,52 +28,55 @@
     <t>Dyson Daniels</t>
   </si>
   <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
+    <t>Keon Ellis</t>
+  </si>
+  <si>
     <t>Malik Beasley</t>
   </si>
   <si>
-    <t>Cam Thomas</t>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Julius Randle</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
   </si>
   <si>
     <t>Toumani Camara</t>
   </si>
   <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Julius Randle</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Guerschon Yabusele</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
     <t>Kelly Oubre Jr.</t>
   </si>
   <si>
-    <t>Kelly Olynyk</t>
+    <t>Kristaps Porzingis</t>
   </si>
   <si>
     <t>Domantas Sabonis</t>
   </si>
   <si>
-    <t>Kristaps Porzingis</t>
+    <t>Kel'el Ware</t>
   </si>
   <si>
     <t>PG,SG,SF</t>
@@ -82,61 +85,61 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
-    <t>Brooklyn Nets</t>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
     <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,7 +555,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,7 +577,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,7 +588,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,7 +599,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,7 +610,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,7 +621,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,10 +695,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>40</v>
+      <c r="C19" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,46 +28,46 @@
     <t>Dyson Daniels</t>
   </si>
   <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Julius Randle</t>
+  </si>
+  <si>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
     <t>Cam Thomas</t>
   </si>
   <si>
-    <t>Keon Ellis</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Julius Randle</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Guerschon Yabusele</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Kel'el Ware</t>
   </si>
   <si>
     <t>Kristaps Porzingis</t>
@@ -76,9 +76,6 @@
     <t>Domantas Sabonis</t>
   </si>
   <si>
-    <t>Kel'el Ware</t>
-  </si>
-  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
@@ -88,58 +85,55 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
     <t>Brooklyn Nets</t>
   </si>
   <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
     <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
   </si>
 </sst>
 </file>
@@ -497,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +513,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -585,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -596,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -607,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,7 +615,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -651,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,7 +681,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,21 +689,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Out of PO.xlsx
+++ b/yahoo/Out of PO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -31,49 +31,52 @@
     <t>Kelly Oubre Jr.</t>
   </si>
   <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
+    <t>Kel'el Ware</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
     <t>Malik Beasley</t>
   </si>
   <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
     <t>Julius Randle</t>
   </si>
   <si>
-    <t>Guerschon Yabusele</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
     <t>Cam Thomas</t>
   </si>
   <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>Kel'el Ware</t>
+    <t>Domantas Sabonis</t>
   </si>
   <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
-    <t>Domantas Sabonis</t>
+    <t>Lauri Markkanen</t>
   </si>
   <si>
     <t>PG,SG,SF</t>
@@ -103,37 +106,40 @@
     <t>Philadelphia 76ers</t>
   </si>
   <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
     <t>Brooklyn Nets</t>
   </si>
   <si>
-    <t>Miami Heat</t>
+    <t>Sacramento Kings</t>
   </si>
   <si>
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>Sacramento Kings</t>
+    <t>Utah Jazz</t>
   </si>
 </sst>
 </file>
@@ -491,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,7 +577,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +621,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -656,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -689,10 +695,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
